--- a/ExamplePathWeight.xlsx
+++ b/ExamplePathWeight.xlsx
@@ -34,12 +34,12 @@
     <t>C1=CC2=C(C=C1)C1=CC=CC=C1C=C2</t>
   </si>
   <si>
+    <t>Oc1ccc2c(ccc3ccccc23)c1O</t>
+  </si>
+  <si>
     <t>Oc1ccc2ccc3ccccc3c2c1O</t>
   </si>
   <si>
-    <t>Oc1ccc2c(ccc3ccccc23)c1O</t>
-  </si>
-  <si>
     <t>OC(=O)c1c(O)ccc2ccccc12</t>
   </si>
   <si>
@@ -49,13 +49,13 @@
     <t>OC(=O)C1=CC=CC=C1C1=C(O)C(O)=CC=C1C(O)=O</t>
   </si>
   <si>
+    <t>CC(=O)C(O)=O</t>
+  </si>
+  <si>
+    <t>O=C(O)c1c(O)ccc2ccccc12</t>
+  </si>
+  <si>
     <t>Oc1c(ccc2ccccc12)C([O-])=O</t>
-  </si>
-  <si>
-    <t>CC(=O)C(O)=O</t>
-  </si>
-  <si>
-    <t>O=C(O)c1c(O)ccc2ccccc12</t>
   </si>
   <si>
     <t>Oc1ccc2ccccc2c1O</t>
@@ -492,13 +492,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -506,21 +506,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -562,13 +562,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -590,30 +590,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
